--- a/medicine/Mort/Liste_des_accidents_mortels_en_Formule_1/Liste_des_accidents_mortels_en_Formule_1.xlsx
+++ b/medicine/Mort/Liste_des_accidents_mortels_en_Formule_1/Liste_des_accidents_mortels_en_Formule_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page dresse la liste des accidents mortels subis par des pilotes automobiles lors de compétitions de Formule 1. 
 Sont pris en compte les décès :
@@ -489,7 +501,7 @@
 lors de séances d'essais de Formule 1 officielles ou privées ;
 lors de séances de qualification de Formule 1 ;
 survenus hors circuit (à l'hôpital ou après une période de coma) mais directement imputables à un accident en Formule 1.
-Quarante-quatre pilotes de Formule 1 sont morts à cause d'accidents. Vingt-quatre pendant un weekend de Formule 1 (dix-sept en course, huit pendant les essais ou qualification), huit pendant les 500 miles d'Indianapolis[1], neuf en essais privés et trois pendant une course de Formule 1 ne comptant pas pour le championnat du monde.
+Quarante-quatre pilotes de Formule 1 sont morts à cause d'accidents. Vingt-quatre pendant un weekend de Formule 1 (dix-sept en course, huit pendant les essais ou qualification), huit pendant les 500 miles d'Indianapolis, neuf en essais privés et trois pendant une course de Formule 1 ne comptant pas pour le championnat du monde.
 Quinze d'entre eux sont morts dans les années 1950, douze dans les années 1960, dix dans les années 1970, quatre dans les années 1980, deux dans les années 1990, aucun dans les années 2000, un dans les années 2010. Les pilotes originaires des États-Unis ont eu le plus grand nombre d'accidents mortels, avec onze morts. 
 Jochen Rindt a remporté le titre de champion du monde 1970 à titre posthume.
 </t>
@@ -520,7 +532,9 @@
           <t>Par saison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Événements qui ne faisaient pas partie du championnat du monde de Formule 1
@@ -553,6 +567,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
